--- a/files/imdhub-refs.xlsx
+++ b/files/imdhub-refs.xlsx
@@ -30,8 +30,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="G1">
+      <text>
+        <t xml:space="preserve">https://docs.google.com/presentation/d/1glqkmizzE0sQGOH9VMpm7CLRh_Ufdj17R0aSxFKrXrs/edit?usp=sharing
+	-Catherine Clancy</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="613">
   <si>
     <t>tableName</t>
   </si>
@@ -96,6 +112,18 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
   </si>
   <si>
+    <t>idPrefix</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>String used to prefix biospecimen identifiers</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C54066</t>
+  </si>
+  <si>
     <t>Centrifugation</t>
   </si>
   <si>
@@ -207,9 +235,6 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C93495</t>
   </si>
   <si>
@@ -450,9 +475,6 @@
     <t>A datum representing that a person's gender identity is not known for any of various reasons.</t>
   </si>
   <si>
-    <t>idPrefix</t>
-  </si>
-  <si>
     <t>EDTA-Tube/Plasma</t>
   </si>
   <si>
@@ -468,6 +490,9 @@
     <t>A sample of plasma from a collection tube containing EDTA.</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>PAXgene-RNA</t>
   </si>
   <si>
@@ -483,6 +508,9 @@
     <t>A blood collection tube that uses proprietary reagents for whole blood collection and stabilization prior to isolation of cellular RNA.</t>
   </si>
   <si>
+    <t>Pax</t>
+  </si>
+  <si>
     <t>EDTA-Blood/DNA</t>
   </si>
   <si>
@@ -498,6 +526,9 @@
     <t>A sample of blood from a collection tube containing EDTA.</t>
   </si>
   <si>
+    <t>BG</t>
+  </si>
+  <si>
     <t>Urine</t>
   </si>
   <si>
@@ -513,6 +544,9 @@
     <t>A biospecimen obtained from urine.</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>Fibroblast cell pellet</t>
   </si>
   <si>
@@ -525,6 +559,9 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C113745</t>
   </si>
   <si>
+    <t>FP</t>
+  </si>
+  <si>
     <t>Fibroblast live cell culture</t>
   </si>
   <si>
@@ -538,6 +575,27 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CLO_0037302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stool </t>
+  </si>
+  <si>
+    <t>Stool for metagenomics analysis</t>
+  </si>
+  <si>
+    <t>SNOMED</t>
+  </si>
+  <si>
+    <t>SNOMED:119339001</t>
+  </si>
+  <si>
+    <t>http://snomed.info/id/119339001</t>
+  </si>
+  <si>
+    <t>A sample of stool collected for Avatar partner study</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>2000 x g; 4°C, 10 min</t>
@@ -1863,21 +1921,26 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1899,11 +1962,6 @@
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1951,19 +2009,22 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1975,7 +2036,7 @@
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1987,20 +2048,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2382,15 +2440,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1"/>
@@ -2398,7 +2456,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2412,44 +2470,48 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
+      <c r="A7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2457,31 +2519,31 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -2489,15 +2551,15 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -2505,65 +2567,61 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="H12" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -2572,159 +2630,161 @@
         <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>67</v>
+      <c r="H21" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>69</v>
+      <c r="H22" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
@@ -2733,59 +2793,62 @@
         <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>74</v>
+      <c r="H24" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="H25" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="H26" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>80</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -2799,7 +2862,7 @@
       <c r="E28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2810,7 +2873,8 @@
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -2832,87 +2896,124 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>20</v>
+      <c r="H32" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H7"/>
-    <hyperlink r:id="rId3" ref="H8"/>
-    <hyperlink r:id="rId4" ref="H9"/>
-    <hyperlink r:id="rId5" ref="H10"/>
-    <hyperlink r:id="rId6" ref="H11"/>
-    <hyperlink r:id="rId7" ref="H16"/>
-    <hyperlink r:id="rId8" ref="H26"/>
-    <hyperlink r:id="rId9" ref="H29"/>
-    <hyperlink r:id="rId10" ref="H30"/>
-    <hyperlink r:id="rId11" ref="H34"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+    <hyperlink r:id="rId3" ref="H4"/>
+    <hyperlink r:id="rId4" ref="H5"/>
+    <hyperlink r:id="rId5" ref="H6"/>
+    <hyperlink r:id="rId6" ref="H7"/>
+    <hyperlink r:id="rId7" ref="H8"/>
+    <hyperlink r:id="rId8" ref="H9"/>
+    <hyperlink r:id="rId9" ref="H10"/>
+    <hyperlink r:id="rId10" ref="H11"/>
+    <hyperlink r:id="rId11" ref="H12"/>
+    <hyperlink r:id="rId12" ref="H13"/>
+    <hyperlink r:id="rId13" ref="H14"/>
+    <hyperlink r:id="rId14" ref="H15"/>
+    <hyperlink r:id="rId15" ref="H16"/>
+    <hyperlink r:id="rId16" ref="H17"/>
+    <hyperlink r:id="rId17" ref="H18"/>
+    <hyperlink r:id="rId18" ref="H19"/>
+    <hyperlink r:id="rId19" ref="H20"/>
+    <hyperlink r:id="rId20" ref="H21"/>
+    <hyperlink r:id="rId21" ref="H22"/>
+    <hyperlink r:id="rId22" ref="H23"/>
+    <hyperlink r:id="rId23" ref="H24"/>
+    <hyperlink r:id="rId24" ref="H25"/>
+    <hyperlink r:id="rId25" ref="H26"/>
+    <hyperlink r:id="rId26" ref="H27"/>
+    <hyperlink r:id="rId27" ref="H28"/>
+    <hyperlink r:id="rId28" ref="H29"/>
+    <hyperlink r:id="rId29" ref="H30"/>
+    <hyperlink r:id="rId30" ref="H31"/>
+    <hyperlink r:id="rId31" ref="H32"/>
+    <hyperlink r:id="rId32" ref="H33"/>
+    <hyperlink r:id="rId33" ref="H34"/>
+    <hyperlink r:id="rId34" ref="H35"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2933,55 +3034,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="17" t="s">
         <v>103</v>
       </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>204</v>
+      <c r="A3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>207</v>
+      <c r="A4" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3011,88 +3112,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>211</v>
+      <c r="A2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>215</v>
+      <c r="A3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>219</v>
+      <c r="A4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>176</v>
+      <c r="A5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3126,36 +3227,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>223</v>
+        <v>108</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1">
         <v>31.0</v>
@@ -3166,16 +3267,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>226</v>
+        <v>108</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E3" s="1">
         <v>28.0</v>
@@ -3186,16 +3287,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>229</v>
+        <v>108</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E4" s="1">
         <v>31.0</v>
@@ -3206,16 +3307,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>232</v>
+        <v>108</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E5" s="1">
         <v>30.0</v>
@@ -3226,16 +3327,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>235</v>
+        <v>108</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E6" s="1">
         <v>31.0</v>
@@ -3246,16 +3347,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>238</v>
+        <v>108</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E7" s="1">
         <v>30.0</v>
@@ -3266,16 +3367,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>241</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>31.0</v>
@@ -3286,16 +3387,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>244</v>
+        <v>108</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E9" s="1">
         <v>31.0</v>
@@ -3306,16 +3407,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>247</v>
+        <v>108</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E10" s="1">
         <v>30.0</v>
@@ -3326,16 +3427,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>250</v>
+        <v>108</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1">
         <v>31.0</v>
@@ -3346,16 +3447,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>253</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E12" s="1">
         <v>30.0</v>
@@ -3366,16 +3467,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>256</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E13" s="1">
         <v>31.0</v>
@@ -3407,133 +3508,133 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>116</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>261</v>
+      <c r="A2" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>266</v>
+      <c r="A4" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>270</v>
+      <c r="A5" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>105</v>
+      <c r="A6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>278</v>
+        <v>289</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>105</v>
+      <c r="A8" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3566,58 +3667,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>282</v>
+        <v>295</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>285</v>
+        <v>298</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3656,75 +3757,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>286</v>
+        <v>103</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>288</v>
+        <v>301</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="K2" s="1">
         <v>52.37403</v>
@@ -3732,40 +3833,40 @@
       <c r="L2" s="1">
         <v>4.88969</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>295</v>
+      <c r="M2" s="23" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>297</v>
+        <v>310</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="K3" s="1">
         <v>51.22047</v>
@@ -3773,40 +3874,40 @@
       <c r="L3" s="1">
         <v>4.40026</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>304</v>
+      <c r="M3" s="23" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="K4" s="1">
         <v>41.897466</v>
@@ -3814,40 +3915,40 @@
       <c r="L4" s="1">
         <v>12.461168</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>313</v>
+      <c r="M4" s="23" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>314</v>
+        <v>328</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="K5" s="1">
         <v>54.540259</v>
@@ -3855,40 +3956,40 @@
       <c r="L5" s="1">
         <v>-5.90496</v>
       </c>
-      <c r="M5" s="22" t="s">
-        <v>320</v>
+      <c r="M5" s="23" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>322</v>
+        <v>335</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="K6" s="1">
         <v>53.325833</v>
@@ -3896,40 +3997,40 @@
       <c r="L6" s="1">
         <v>-6.317222</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>328</v>
+      <c r="M6" s="23" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>330</v>
+        <v>343</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="K7" s="1">
         <v>55.67594</v>
@@ -3937,40 +4038,40 @@
       <c r="L7" s="1">
         <v>12.56553</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>337</v>
+      <c r="M7" s="23" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>339</v>
+        <v>352</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="K8" s="1">
         <v>51.9225</v>
@@ -3978,40 +4079,40 @@
       <c r="L8" s="1">
         <v>4.47917</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>343</v>
+      <c r="M8" s="23" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>344</v>
+        <v>358</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K9" s="1">
         <v>50.08804</v>
@@ -4019,40 +4120,40 @@
       <c r="L9" s="1">
         <v>14.42076</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>351</v>
+      <c r="M9" s="23" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>353</v>
+        <v>366</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="K10" s="1">
         <v>51.50853</v>
@@ -4060,40 +4161,40 @@
       <c r="L10" s="1">
         <v>-0.12574</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>357</v>
+      <c r="M10" s="23" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>359</v>
+        <v>372</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="K11" s="1">
         <v>43.282025</v>
@@ -4101,40 +4202,40 @@
       <c r="L11" s="1">
         <v>-2.984339</v>
       </c>
-      <c r="M11" s="22" t="s">
-        <v>365</v>
+      <c r="M11" s="23" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>367</v>
+        <v>380</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="K12" s="1">
         <v>42.868175</v>
@@ -4142,40 +4243,40 @@
       <c r="L12" s="1">
         <v>-8.562744</v>
       </c>
-      <c r="M12" s="22" t="s">
-        <v>372</v>
+      <c r="M12" s="23" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>374</v>
+        <v>387</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="K13" s="1">
         <v>49.98419</v>
@@ -4183,40 +4284,40 @@
       <c r="L13" s="1">
         <v>8.2791</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>380</v>
+      <c r="M13" s="23" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>382</v>
+        <v>395</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="K14" s="1">
         <v>50.87959</v>
@@ -4224,40 +4325,40 @@
       <c r="L14" s="1">
         <v>4.70093</v>
       </c>
-      <c r="M14" s="22" t="s">
-        <v>387</v>
+      <c r="M14" s="23" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>389</v>
+        <v>402</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="K15" s="1">
         <v>53.33306</v>
@@ -4265,40 +4366,40 @@
       <c r="L15" s="1">
         <v>-6.24889</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>393</v>
+      <c r="M15" s="23" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>395</v>
+        <v>408</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="K16" s="1">
         <v>48.20849</v>
@@ -4307,39 +4408,39 @@
         <v>16.37208</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>403</v>
+        <v>417</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="K17" s="1">
         <v>52.37052</v>
@@ -4347,40 +4448,40 @@
       <c r="L17" s="1">
         <v>9.73322</v>
       </c>
-      <c r="M17" s="22" t="s">
-        <v>408</v>
+      <c r="M17" s="23" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>410</v>
+        <v>423</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="K18" s="1">
         <v>43.810527</v>
@@ -4388,40 +4489,40 @@
       <c r="L18" s="1">
         <v>11.252438</v>
       </c>
-      <c r="M18" s="22" t="s">
-        <v>414</v>
+      <c r="M18" s="23" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>415</v>
+        <v>429</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="K19" s="1">
         <v>59.9486</v>
@@ -4429,40 +4530,40 @@
       <c r="L19" s="1">
         <v>10.7153</v>
       </c>
-      <c r="M19" s="22" t="s">
-        <v>421</v>
+      <c r="M19" s="23" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>423</v>
+        <v>436</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="K20" s="1">
         <v>46.077371</v>
@@ -4470,40 +4571,40 @@
       <c r="L20" s="1">
         <v>13.228381</v>
       </c>
-      <c r="M20" s="22" t="s">
-        <v>428</v>
+      <c r="M20" s="23" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>430</v>
+        <v>443</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="K21" s="1">
         <v>57.70716</v>
@@ -4511,40 +4612,40 @@
       <c r="L21" s="1">
         <v>11.96679</v>
       </c>
-      <c r="M21" s="22" t="s">
-        <v>436</v>
+      <c r="M21" s="23" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>437</v>
+        <v>451</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="K22" s="1">
         <v>48.13743</v>
@@ -4552,40 +4653,40 @@
       <c r="L22" s="1">
         <v>11.57549</v>
       </c>
-      <c r="M22" s="22" t="s">
-        <v>442</v>
+      <c r="M22" s="23" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>444</v>
+        <v>457</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="K23" s="1">
         <v>48.52266</v>
@@ -4593,40 +4694,40 @@
       <c r="L23" s="1">
         <v>9.05222</v>
       </c>
-      <c r="M23" s="22" t="s">
-        <v>449</v>
+      <c r="M23" s="23" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>450</v>
+        <v>464</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="K24" s="1">
         <v>49.40768</v>
@@ -4634,40 +4735,40 @@
       <c r="L24" s="1">
         <v>8.69079</v>
       </c>
-      <c r="M24" s="22" t="s">
-        <v>454</v>
+      <c r="M24" s="23" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>456</v>
+        <v>469</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="K25" s="1">
         <v>48.006297</v>
@@ -4675,40 +4776,40 @@
       <c r="L25" s="1">
         <v>7.840624</v>
       </c>
-      <c r="M25" s="22" t="s">
-        <v>460</v>
+      <c r="M25" s="23" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>462</v>
+        <v>475</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="K26" s="1">
         <v>52.09083</v>
@@ -4716,40 +4817,40 @@
       <c r="L26" s="1">
         <v>5.12222</v>
       </c>
-      <c r="M26" s="22" t="s">
-        <v>467</v>
+      <c r="M26" s="23" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>468</v>
+      <c r="A27" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>471</v>
+        <v>484</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>485</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K27" s="2">
         <v>53.21917</v>
@@ -4757,8 +4858,8 @@
       <c r="L27" s="2">
         <v>6.56667</v>
       </c>
-      <c r="M27" s="22" t="s">
-        <v>473</v>
+      <c r="M27" s="23" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -4787,105 +4888,105 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>100</v>
+      <c r="A1" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>474</v>
+      <c r="A2" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>477</v>
+        <v>490</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>478</v>
+      <c r="A3" s="7" t="s">
+        <v>492</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>481</v>
+        <v>494</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>482</v>
+      <c r="A4" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>485</v>
+        <v>498</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>486</v>
+      <c r="A5" s="7" t="s">
+        <v>500</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>489</v>
+        <v>502</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>490</v>
+      <c r="A6" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>493</v>
+        <v>506</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4911,55 +5012,55 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>100</v>
+      <c r="A1" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4990,187 +5091,187 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>504</v>
+        <v>517</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>518</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>509</v>
+        <v>522</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>514</v>
+        <v>527</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>518</v>
+        <v>531</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>532</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>523</v>
+        <v>536</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>528</v>
+        <v>541</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="29" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>533</v>
+        <v>546</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>547</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>540</v>
+        <v>553</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -5206,175 +5307,175 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5396,73 +5497,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>100</v>
+      <c r="A1" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>104</v>
+      <c r="A2" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5497,186 +5598,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -5699,48 +5800,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>100</v>
+      <c r="A1" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>593</v>
+      <c r="A2" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>595</v>
+        <v>608</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>598</v>
+        <v>611</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5771,19 +5872,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -5838,102 +5939,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5962,154 +6063,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E6"/>
-    <hyperlink r:id="rId2" ref="E7"/>
+    <hyperlink r:id="rId2" ref="E6"/>
+    <hyperlink r:id="rId3" ref="E7"/>
+    <hyperlink r:id="rId4" ref="E8"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6128,16 +6267,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -6145,53 +6284,53 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6215,44 +6354,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>194</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>181</v>
+      <c r="A3" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>184</v>
+        <v>197</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6278,59 +6417,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>100</v>
+      <c r="A1" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>185</v>
+      <c r="A2" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>188</v>
+        <v>201</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>190</v>
+      <c r="A3" s="16" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>191</v>
+      <c r="A4" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6358,42 +6497,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>116</v>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>195</v>
+      <c r="A2" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>196</v>
+      <c r="A3" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
